--- a/data/trans_dic/P70B_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P70B_R-Habitat-trans_dic.xlsx
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>63,46; 87,91</t>
+          <t>65,19; 89,42</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>71,68; 92,4</t>
+          <t>73,48; 92,81</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>71,84; 88,4</t>
+          <t>71,76; 87,76</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>77,07; 87,12</t>
+          <t>77,06; 86,96</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>79,36; 88,08</t>
+          <t>79,11; 88,08</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>79,21; 86,27</t>
+          <t>79,85; 86,41</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>80,68; 89,01</t>
+          <t>81,05; 88,82</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>82,11; 87,93</t>
+          <t>82,18; 88,19</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>82,44; 87,87</t>
+          <t>82,22; 87,72</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>80,8; 90,11</t>
+          <t>80,94; 90,34</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>80,66; 88,59</t>
+          <t>80,97; 88,72</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>82,35; 88,6</t>
+          <t>82,11; 88,16</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>84,98; 91,04</t>
+          <t>84,85; 91,23</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>80,23; 88,53</t>
+          <t>80,57; 88,59</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>84,16; 88,83</t>
+          <t>83,87; 89,02</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>83,51; 87,52</t>
+          <t>83,41; 87,61</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>82,94; 87,01</t>
+          <t>82,81; 86,93</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>83,96; 86,64</t>
+          <t>83,86; 86,64</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P70B_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P70B_R-Habitat-trans_dic.xlsx
@@ -546,7 +546,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -596,7 +596,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -646,7 +646,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -696,7 +696,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">

--- a/data/trans_dic/P70B_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P70B_R-Habitat-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>65,19; 89,42</t>
+          <t>63,46; 87,91</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>73,48; 92,81</t>
+          <t>71,68; 92,4</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>71,76; 87,76</t>
+          <t>71,84; 88,4</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>77,06; 86,96</t>
+          <t>77,07; 87,12</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>79,11; 88,08</t>
+          <t>79,36; 88,08</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>79,85; 86,41</t>
+          <t>79,21; 86,27</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>81,05; 88,82</t>
+          <t>80,68; 89,01</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>82,18; 88,19</t>
+          <t>82,11; 87,93</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>82,22; 87,72</t>
+          <t>82,44; 87,87</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>80,94; 90,34</t>
+          <t>80,8; 90,11</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>80,97; 88,72</t>
+          <t>80,66; 88,59</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>82,11; 88,16</t>
+          <t>82,35; 88,6</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>84,85; 91,23</t>
+          <t>84,98; 91,04</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>80,57; 88,59</t>
+          <t>80,23; 88,53</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>83,87; 89,02</t>
+          <t>84,16; 88,83</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>83,41; 87,61</t>
+          <t>83,51; 87,52</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>82,81; 86,93</t>
+          <t>82,94; 87,01</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>83,86; 86,64</t>
+          <t>83,96; 86,64</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P70B_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P70B_R-Habitat-trans_dic.xlsx
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -546,7 +546,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>78,48%</t>
+          <t>82,0%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>84,34%</t>
+          <t>84,57%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>81,16%</t>
+          <t>83,11%</t>
         </is>
       </c>
     </row>
@@ -579,24 +579,24 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>63,46; 87,91</t>
+          <t>77,5; 86,39</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>71,68; 92,4</t>
+          <t>80,15; 87,97</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>71,84; 88,4</t>
+          <t>79,97; 85,83</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>82,7%</t>
+          <t>88,23%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>84,42%</t>
+          <t>85,08%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>83,45%</t>
+          <t>87,18%</t>
         </is>
       </c>
     </row>
@@ -629,24 +629,24 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>77,07; 87,12</t>
+          <t>81,78; 95,23</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>79,36; 88,08</t>
+          <t>81,91; 87,82</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>79,21; 86,27</t>
+          <t>82,9; 93,29</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>84,86%</t>
+          <t>86,25%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>85,17%</t>
+          <t>86,42%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>84,99%</t>
+          <t>86,33%</t>
         </is>
       </c>
     </row>
@@ -679,24 +679,24 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>80,68; 89,01</t>
+          <t>80,61; 90,13</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>82,11; 87,93</t>
+          <t>82,04; 90,7</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>82,44; 87,87</t>
+          <t>82,98; 89,56</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>86,21%</t>
+          <t>88,18%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>85,08%</t>
+          <t>87,33%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>85,68%</t>
+          <t>87,75%</t>
         </is>
       </c>
     </row>
@@ -729,24 +729,24 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>80,8; 90,11</t>
+          <t>84,89; 91,06</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>80,66; 88,59</t>
+          <t>83,02; 92,26</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>82,35; 88,6</t>
+          <t>85,27; 90,72</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -756,17 +756,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>88,19%</t>
+          <t>86,8%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>85,42%</t>
+          <t>86,03%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>86,85%</t>
+          <t>86,47%</t>
         </is>
       </c>
     </row>
@@ -779,86 +779,35 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>84,98; 91,04</t>
+          <t>84,13; 91,6</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>80,23; 88,53</t>
+          <t>84,15; 88,58</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>84,16; 88,83</t>
+          <t>84,72; 89,4</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>85,5%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>85,09%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>85,31%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>83,51; 87,52</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>82,94; 87,01</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>83,96; 86,64</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="6">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_dic/P70B_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P70B_R-Habitat-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -579,17 +580,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>77,5; 86,39</t>
+          <t>76,73; 86,43</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>80,15; 87,97</t>
+          <t>80,72; 88,38</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>79,97; 85,83</t>
+          <t>80,07; 86,19</t>
         </is>
       </c>
     </row>
@@ -629,17 +630,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>81,78; 95,23</t>
+          <t>81,87; 95,38</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>81,91; 87,82</t>
+          <t>81,83; 88,12</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>82,9; 93,29</t>
+          <t>82,92; 93,08</t>
         </is>
       </c>
     </row>
@@ -679,17 +680,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>80,61; 90,13</t>
+          <t>80,78; 90,43</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>82,04; 90,7</t>
+          <t>82,48; 90,75</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>82,98; 89,56</t>
+          <t>82,92; 89,39</t>
         </is>
       </c>
     </row>
@@ -729,17 +730,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>84,89; 91,06</t>
+          <t>84,83; 90,99</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>83,02; 92,26</t>
+          <t>83,33; 92,24</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>85,27; 90,72</t>
+          <t>85,04; 90,74</t>
         </is>
       </c>
     </row>
@@ -779,17 +780,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>84,13; 91,6</t>
+          <t>84,17; 90,95</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>84,15; 88,58</t>
+          <t>83,89; 88,28</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>84,72; 89,4</t>
+          <t>84,78; 89,35</t>
         </is>
       </c>
     </row>
@@ -811,4 +812,462 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que concilia su vida profesional y laboral</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>&lt;10.000 hab</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>282</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>354</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>636</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>274135</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>216449</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>490584</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>256523; 288929</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>206617; 226221</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>472600; 508769</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>10-50.000 hab</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>453</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>511</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>964</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>710538</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>341062</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>1051600</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>659355; 768121</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>328045; 353248</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>1000204; 1122820</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>&gt;50.000 hab</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>287</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>365</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>652</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>303215</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>279597</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>582812</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>283964; 317899</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>266841; 293596</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>559748; 603421</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Capitales</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>420</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>525</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>416396</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>420562</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>836957</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>400588; 429654</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>401302; 444209</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>811058; 865473</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>1442</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>1755</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>3197</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>1704284</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>1257670</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>2961954</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>1652582; 1785734</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>1226398; 1290624</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>2904039; 3060596</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>